--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Tabulación!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -223,9 +223,6 @@
     <t>Computador</t>
   </si>
   <si>
-    <t>Informe</t>
-  </si>
-  <si>
     <t>Escuchar la opinión del dueño y/o administrador para el desarrollo del proyecto</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Alan Darién Prada Fierro</t>
+  </si>
+  <si>
+    <t>Resultados escritos</t>
   </si>
 </sst>
 </file>
@@ -1206,34 +1206,73 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1255,87 +1294,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1479,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -2049,55 +2049,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2108,56 +2108,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2183,9 +2183,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2215,10 +2215,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2230,10 +2230,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="19" t="s">
         <v>51</v>
       </c>
@@ -2245,10 +2245,10 @@
       <c r="C28" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="8" t="s">
         <v>46</v>
       </c>
@@ -2260,10 +2260,10 @@
       <c r="C29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="64"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
@@ -2271,43 +2271,43 @@
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2321,43 +2321,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2674,6 +2674,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2690,19 +2703,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2715,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:IS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2737,56 +2737,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -2826,38 +2826,38 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="76">
+      <c r="D10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="51">
         <v>44967</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="71"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>61</v>
@@ -2876,17 +2876,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="94" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="49">
         <v>44974</v>
@@ -2902,15 +2902,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="60" customHeight="1">
-      <c r="B13" s="71"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="46" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="49">
         <v>44975</v>
@@ -2921,22 +2921,22 @@
       <c r="H13" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="71" t="s">
-        <v>65</v>
+      <c r="B14" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="49">
         <v>44982</v>
@@ -2947,31 +2947,31 @@
       <c r="H14" s="49">
         <v>0</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="81" t="s">
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="55">
         <v>44982</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="56" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3174,60 +3174,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3437,60 +3437,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3503,17 +3503,17 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="E15" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="24"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -3521,17 +3521,17 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="89">
+      <c r="B16" s="58"/>
+      <c r="C16" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="63">
         <v>44967</v>
       </c>
-      <c r="E16" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="86"/>
+      <c r="E16" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="60"/>
       <c r="G16" s="24"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3539,15 +3539,15 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="87">
+      <c r="B17" s="57"/>
+      <c r="C17" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="61">
         <v>44968</v>
       </c>
-      <c r="E17" s="97" t="s">
-        <v>82</v>
+      <c r="E17" s="71" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3557,15 +3557,15 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="B18" s="58"/>
+      <c r="C18" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="61">
         <v>44974</v>
       </c>
-      <c r="E18" s="97" t="s">
-        <v>83</v>
+      <c r="E18" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="F18" s="34"/>
       <c r="K18" s="13"/>
@@ -3574,42 +3574,42 @@
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="87">
+      <c r="B19" s="57"/>
+      <c r="C19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="61">
         <v>44975</v>
       </c>
-      <c r="E19" s="97" t="s">
-        <v>85</v>
+      <c r="E19" s="71" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="34"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="87">
+      <c r="B20" s="58"/>
+      <c r="C20" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="61">
         <v>44983</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="34"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="88">
+      <c r="B21" s="57"/>
+      <c r="C21" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="62">
         <v>44983</v>
       </c>
-      <c r="E21" s="98"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="34"/>
       <c r="IW21" s="2"/>
     </row>
@@ -3787,60 +3787,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4083,60 +4083,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4396,56 +4396,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4456,17 +4456,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -142,21 +142,12 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Entrevista</t>
-  </si>
-  <si>
     <t>Observación</t>
   </si>
   <si>
     <t>Encuesta</t>
   </si>
   <si>
-    <t>Investigación</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
     <t>Planeación de la Recolección</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t xml:space="preserve">Entrevista </t>
   </si>
   <si>
-    <t>Computador</t>
-  </si>
-  <si>
-    <t>Escuchar la opinión del dueño y/o administrador para el desarrollo del proyecto</t>
-  </si>
-  <si>
     <t>Cuestionario con preguntas base de administración e ingresos mensuales</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>Administradora y dueña (María Beltrán Aristizábal)</t>
   </si>
   <si>
-    <t>Administradora y dueña (María Beltrán Aristizábal), clientes después de su compra</t>
-  </si>
-  <si>
     <t>INSTRUMENTOS</t>
   </si>
   <si>
@@ -253,18 +235,12 @@
     <t>Observación - Directa</t>
   </si>
   <si>
-    <t>Cuestionario acerca de satisfacción de clientes</t>
-  </si>
-  <si>
     <t>Encuesta 2 - Cuestionario acerca de satisfacción de clientes</t>
   </si>
   <si>
     <t>Entrevista 1 - Entrevista individual</t>
   </si>
   <si>
-    <t>Cuestionario administración proyecto App</t>
-  </si>
-  <si>
     <t>Entrevista 2 - Cuestionario administración proyecto App</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
   </si>
   <si>
     <t>Alan Darién Prada Fierro</t>
-  </si>
-  <si>
-    <t>Resultados escritos</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1215,18 +1188,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,8 +1232,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1294,34 +1283,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,6 +1297,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1371,7 +1350,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1404,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1458,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1566,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,55 +2028,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="C7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2108,84 +2087,84 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="C16" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
+      <c r="C17" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="C19" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2215,99 +2194,99 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="77"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickTop="1">
       <c r="B27" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="78"/>
+      <c r="D27" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="84"/>
       <c r="F27" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="50.1" customHeight="1">
       <c r="B28" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="79"/>
+        <v>49</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="85"/>
       <c r="F28" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B29" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="79"/>
+        <v>51</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="85"/>
       <c r="F29" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2321,43 +2300,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B41" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="B42" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2674,19 +2653,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2703,6 +2669,19 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2715,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:IS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2737,56 +2716,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
+      <c r="A4" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
+      <c r="A5" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -2826,164 +2805,120 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="96" t="s">
-        <v>59</v>
+      <c r="B10" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="51">
         <v>44967</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="94"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="49">
         <v>44968</v>
       </c>
       <c r="G11" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="46" t="s">
-        <v>56</v>
-      </c>
       <c r="I11" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
+      <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="49">
-        <v>44974</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="46" t="s">
+      <c r="C12" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="96">
+        <v>44975</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="60" customHeight="1">
-      <c r="B13" s="94"/>
-      <c r="C13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="49">
-        <v>44975</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>57</v>
-      </c>
+      <c r="I12" s="97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="B13" s="91"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="49">
-        <v>44982</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B15" s="95"/>
-      <c r="C15" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="55">
-        <v>44982</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>57</v>
-      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:253" customFormat="1" ht="15">
       <c r="B17" s="24"/>
@@ -3045,6 +2980,7 @@
       <c r="B24" s="33"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
+      <c r="I24" s="34"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -3052,6 +2988,7 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
+      <c r="I25" s="34"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -3064,14 +3001,12 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="I27" s="34"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B28" s="33"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
-      <c r="I28" s="34"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -3099,26 +3034,18 @@
       <c r="IS32" s="2"/>
     </row>
     <row r="33" spans="2:253" s="1" customFormat="1">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="24"/>
       <c r="IS33" s="2"/>
     </row>
     <row r="34" spans="2:253" s="1" customFormat="1">
-      <c r="B34" s="33"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
       <c r="IS34" s="2"/>
     </row>
     <row r="35" spans="2:253" s="1" customFormat="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
       <c r="IS35" s="2"/>
     </row>
     <row r="36" spans="2:253" s="1" customFormat="1">
-      <c r="C36" s="26"/>
-      <c r="D36" s="24"/>
       <c r="IS36" s="2"/>
     </row>
     <row r="37" spans="2:253" s="1" customFormat="1">
@@ -3131,14 +3058,20 @@
       <c r="IS39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="13">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -3174,60 +3107,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="A7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3437,60 +3370,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="A7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3503,17 +3436,17 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="59"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="55"/>
       <c r="G15" s="24"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -3521,17 +3454,17 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="59">
+        <v>44967</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="63">
-        <v>44967</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="24"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3539,15 +3472,15 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="57">
+        <v>44968</v>
+      </c>
+      <c r="E17" s="67" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="61">
-        <v>44968</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>81</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3557,15 +3490,15 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="61">
+      <c r="B18" s="54"/>
+      <c r="C18" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="57">
         <v>44974</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>82</v>
+      <c r="E18" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="34"/>
       <c r="K18" s="13"/>
@@ -3574,42 +3507,42 @@
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="57">
+        <v>44975</v>
+      </c>
+      <c r="E19" s="67" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="61">
-        <v>44975</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>84</v>
       </c>
       <c r="F19" s="34"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="61">
+      <c r="B20" s="54"/>
+      <c r="C20" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="57">
         <v>44983</v>
       </c>
-      <c r="E20" s="71"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="34"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="62">
+      <c r="B21" s="53"/>
+      <c r="C21" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="58">
         <v>44983</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="34"/>
       <c r="IW21" s="2"/>
     </row>
@@ -3787,60 +3720,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="A7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4083,60 +4016,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="A7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4396,56 +4329,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="A7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4456,17 +4389,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -202,9 +202,6 @@
     <t>Conocer cómo funciona la empresa o negocio - administración</t>
   </si>
   <si>
-    <t>Medir la percepción de los clientes al recibir su producto y su nivel de satisfacción al consumirlo</t>
-  </si>
-  <si>
     <t>Tienda la Antioqueño</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Alan Darién Prada Fierro</t>
+  </si>
+  <si>
+    <t>Percibir el punto de vista y opinión de el dueño o administrador acerca del proyecto a realizar</t>
   </si>
 </sst>
 </file>
@@ -1232,36 +1232,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1283,15 +1255,43 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,16 +1301,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1404,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,55 +2028,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2087,56 +2087,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2162,9 +2162,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2194,10 +2194,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2209,10 +2209,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="19" t="s">
         <v>48</v>
       </c>
@@ -2224,10 +2224,10 @@
       <c r="C28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="C29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="8" t="s">
         <v>42</v>
       </c>
@@ -2250,43 +2250,43 @@
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2300,43 +2300,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2653,6 +2653,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2669,19 +2682,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2695,7 +2695,7 @@
   <dimension ref="A3:IS39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2756,16 +2756,16 @@
       <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -2805,17 +2805,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="51">
         <v>44967</v>
@@ -2824,22 +2824,22 @@
         <v>50</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="90"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="49">
         <v>44968</v>
@@ -2855,39 +2855,39 @@
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="90" t="s">
-        <v>57</v>
+      <c r="B12" s="91" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="96">
+        <v>38</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="97">
         <v>44975</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="97" t="s">
+      <c r="H12" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="99" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="91"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
@@ -3107,60 +3107,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3370,60 +3370,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3438,13 +3438,13 @@
       <c r="A15" s="29"/>
       <c r="B15" s="53"/>
       <c r="C15" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="E15" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="24"/>
@@ -3456,13 +3456,13 @@
       <c r="A16" s="29"/>
       <c r="B16" s="54"/>
       <c r="C16" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="59">
         <v>44967</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="24"/>
@@ -3474,13 +3474,13 @@
       <c r="A17" s="29"/>
       <c r="B17" s="53"/>
       <c r="C17" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="57">
         <v>44968</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3492,13 +3492,13 @@
       <c r="A18" s="29"/>
       <c r="B18" s="54"/>
       <c r="C18" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="57">
         <v>44974</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="34"/>
       <c r="K18" s="13"/>
@@ -3509,13 +3509,13 @@
       <c r="A19" s="29"/>
       <c r="B19" s="53"/>
       <c r="C19" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="57">
         <v>44975</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="34"/>
       <c r="IW19" s="2"/>
@@ -3524,7 +3524,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="54"/>
       <c r="C20" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="57">
         <v>44983</v>
@@ -3537,7 +3537,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="53"/>
       <c r="C21" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="58">
         <v>44983</v>
@@ -3720,60 +3720,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4016,60 +4016,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4329,56 +4329,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4389,17 +4389,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Percibir el punto de vista y opinión de el dueño o administrador acerca del proyecto a realizar</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Actualización de archivos plan proyecto</t>
+  </si>
+  <si>
+    <t>01/02/23</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1241,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1253,34 +1290,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1359,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1413,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1467,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1521,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1575,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2028,55 +2037,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2087,56 +2096,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2146,13 +2155,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2162,9 +2171,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2194,10 +2203,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2209,10 +2218,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="74"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="19" t="s">
         <v>48</v>
       </c>
@@ -2224,10 +2233,10 @@
       <c r="C28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="75"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2239,54 +2248,62 @@
       <c r="C29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="8"/>
+    <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
+      <c r="B30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2300,43 +2317,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2653,19 +2670,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2682,6 +2686,19 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2694,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:IS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2756,16 +2773,16 @@
       <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3107,60 +3124,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3370,60 +3387,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3720,60 +3737,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4016,60 +4033,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4329,56 +4346,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4389,17 +4406,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>01/02/23</t>
+  </si>
+  <si>
+    <t>Avance Carpetas .html</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>02/03/23</t>
   </si>
 </sst>
 </file>
@@ -1241,36 +1250,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1290,6 +1271,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,7 +1368,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1422,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1476,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1530,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1584,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1692,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2021,7 @@
   <dimension ref="A2:IV85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2037,55 +2046,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2096,56 +2105,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2155,13 +2164,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2171,9 +2180,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2203,10 +2212,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2218,10 +2227,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="19" t="s">
         <v>48</v>
       </c>
@@ -2233,10 +2242,10 @@
       <c r="C28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2248,10 +2257,10 @@
       <c r="C29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="8" t="s">
         <v>42</v>
       </c>
@@ -2263,47 +2272,55 @@
       <c r="C30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="F31" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2317,43 +2334,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2670,6 +2687,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2686,19 +2716,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2773,16 +2790,16 @@
       <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3124,60 +3141,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3387,60 +3404,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3737,60 +3754,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4033,60 +4050,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4346,56 +4363,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4406,17 +4423,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>02/03/23</t>
+  </si>
+  <si>
+    <t>0.5.1</t>
+  </si>
+  <si>
+    <t>Renovación ("Tienda_Antio-Market_(web)\CLIENTE - COMPRADOR/ index.html"</t>
+  </si>
+  <si>
+    <t>03/03/23</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1259,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1271,34 +1308,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,7 +1377,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1431,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1485,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1539,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1593,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1701,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2046,55 +2055,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2105,56 +2114,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2164,13 +2173,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2180,9 +2189,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2212,10 +2221,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2227,10 +2236,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="74"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="19" t="s">
         <v>48</v>
       </c>
@@ -2242,10 +2251,10 @@
       <c r="C28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="75"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2257,10 +2266,10 @@
       <c r="C29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="8" t="s">
         <v>42</v>
       </c>
@@ -2272,10 +2281,10 @@
       <c r="C30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="75"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="8" t="s">
         <v>80</v>
       </c>
@@ -2287,40 +2296,48 @@
       <c r="C31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="75"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="8"/>
+    <row r="32" spans="1:16" ht="80.099999999999994" customHeight="1">
+      <c r="B32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2334,43 +2351,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2687,19 +2704,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -2716,6 +2720,19 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2790,16 +2807,16 @@
       <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3141,60 +3158,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3380,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3404,60 +3421,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3754,60 +3771,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4050,60 +4067,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4363,56 +4380,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4423,17 +4440,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Tabulación!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Observación</t>
   </si>
   <si>
-    <t>Encuesta</t>
-  </si>
-  <si>
     <t>Planeación de la Recolección</t>
   </si>
   <si>
@@ -157,39 +154,21 @@
     <t>Antio-Market</t>
   </si>
   <si>
-    <t>25/02/23</t>
-  </si>
-  <si>
     <t>18/02/23</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Juan Diego Rodríguez Rueda</t>
   </si>
   <si>
     <t>11/02/23</t>
   </si>
   <si>
-    <t>Adaptación de la presentación proyecto Antio-Market</t>
-  </si>
-  <si>
     <t>Elián Eduardo Ibarra Contreras</t>
   </si>
   <si>
-    <t>Correción Diagrama de Procesos</t>
-  </si>
-  <si>
-    <t>Google Forms</t>
-  </si>
-  <si>
     <t>Un Cuaderno</t>
   </si>
   <si>
@@ -202,21 +181,12 @@
     <t>Conocer cómo funciona la empresa o negocio - administración</t>
   </si>
   <si>
-    <t>Tienda la Antioqueño</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entrevista </t>
   </si>
   <si>
-    <t>Cuestionario con preguntas base de administración e ingresos mensuales</t>
-  </si>
-  <si>
     <t>Hoja de chequeo</t>
   </si>
   <si>
-    <t>Administradora y dueña (María Beltrán Aristizábal)</t>
-  </si>
-  <si>
     <t>INSTRUMENTOS</t>
   </si>
   <si>
@@ -226,77 +196,279 @@
     <t>RESULTADOS</t>
   </si>
   <si>
-    <t>Encuesta 1 - Cuestionario con preguntas base de administración e ingresos mensuales</t>
-  </si>
-  <si>
     <t>Observación - Directa</t>
   </si>
   <si>
-    <t>Encuesta 2 - Cuestionario acerca de satisfacción de clientes</t>
-  </si>
-  <si>
-    <t>Entrevista 1 - Entrevista individual</t>
-  </si>
-  <si>
-    <t>Entrevista 2 - Cuestionario administración proyecto App</t>
-  </si>
-  <si>
-    <t>Investigación - Informe</t>
-  </si>
-  <si>
-    <t>Encontramos que manejan la administración de forma física en un cuaderno y que buscan que todo sea digital, además que la misma persona que atiende el negocio es la dueña del mismo</t>
-  </si>
-  <si>
-    <t>Se pudo observar una tienda con poco espacio de ancho pero más de fondo, con variedad de productos desde paquetes, dulces, frutas, verduras y algunas carnes.</t>
-  </si>
-  <si>
-    <t>Pudimos encontrar que los clientes salen satisfechos de la tienda ya que según cuentan ellos, encuentran precios bajos y variedad de productos en general, aunque algunos buscan algo específico que no encontramos en el recinto.</t>
-  </si>
-  <si>
-    <t>Entrevista individual con preguntas abiertas de su punto de vista para el cliente</t>
-  </si>
-  <si>
-    <t>Encontramos que la dueña del negocio considera que la gente si le compra, que si les gustra comprar en su tienda y que puede decir que cuenta con clientes fijos por semana (números y personas).</t>
-  </si>
-  <si>
     <t>Alan Darién Prada Fierro</t>
   </si>
   <si>
-    <t>Percibir el punto de vista y opinión de el dueño o administrador acerca del proyecto a realizar</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Actualización de archivos plan proyecto</t>
-  </si>
-  <si>
-    <t>01/02/23</t>
-  </si>
-  <si>
-    <t>Avance Carpetas .html</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>02/03/23</t>
-  </si>
-  <si>
-    <t>0.5.1</t>
-  </si>
-  <si>
-    <t>Renovación ("Tienda_Antio-Market_(web)\CLIENTE - COMPRADOR/ index.html"</t>
-  </si>
-  <si>
-    <t>03/03/23</t>
+    <t>Pudimos encontrar que cuentan con dos lugares: Uno es la distribuidora siendo el negocio más grande, y el otro que es donde fue hecha la entrevista, donde venden los productos. También que su población que más le venden es los estudiantes, puesto que se encuentra al frente de dos colegios.</t>
+  </si>
+  <si>
+    <t>Se pudo observar productos en su mayoría de papelería tales como: Cuadernos, lapices, lapiceros, carpetas. Pero también algunos dulces.</t>
+  </si>
+  <si>
+    <t>Preguntas directas</t>
+  </si>
+  <si>
+    <t>Dueño y administrador (Carlos Ríos)</t>
+  </si>
+  <si>
+    <t>06/03/23</t>
+  </si>
+  <si>
+    <t>IncorpOsiris</t>
+  </si>
+  <si>
+    <t>Miscelánea Osiris</t>
+  </si>
+  <si>
+    <t>Preguntas:</t>
+  </si>
+  <si>
+    <t>Preguntas Iniciales, datos del Encuestado y de su población:</t>
+  </si>
+  <si>
+    <t>Preguntas acerca de la administración de la Empresa:</t>
+  </si>
+  <si>
+    <t>Entrevista:  Recolección Datos Iniciales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Cuál es su nombre?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Cómo se llama su negocio o en el que trabaja?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Con qué objetivo surgió su negocio?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Qué vende su negocio?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Está registrado en la cámara de comercio?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿A qué población considera que más le vende?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>¿Cuántas personas cree que compran sus productos diariamente?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> Actualmente, ¿Qué método utiliza para el manejo del flujo de caja e inventarios?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Quién o quiénes manejan esto? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>(Pregunta Anterior)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Cuentan con redes sociales o algún otro medio de publicidad o promoción de sus productos?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Qué aspectos de su negocio quisiera mejorar o implementar que puedan convertirse en un problema?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Cuánto tiempo lleva funcionando?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Qué cargo labora en su negocio?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +591,45 @@
       <color rgb="FFFFFF00"/>
       <name val="Arial1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -464,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1083,13 +1294,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1203,13 +1469,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,12 +1483,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,19 +1501,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,20 +1529,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,6 +1605,77 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
@@ -2029,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2055,55 +2388,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="C7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2114,84 +2447,84 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="C16" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="C17" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="C19" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2221,123 +2554,83 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickTop="1">
       <c r="B27" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="84"/>
+      <c r="D27" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="82"/>
       <c r="F27" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="50.1" customHeight="1">
-      <c r="B28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
-      <c r="B29" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
-      <c r="B30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B31" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="80.099999999999994" customHeight="1">
-      <c r="B32" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="24.95" customHeight="1">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2351,43 +2644,43 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="B40" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="B41" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
       <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
@@ -2703,12 +2996,12 @@
       <c r="D85" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
+    <mergeCell ref="C21:D22"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B39:F39"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -2720,7 +3013,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
@@ -2728,11 +3025,6 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2745,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:IS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2767,56 +3059,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="A5" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -2856,90 +3148,74 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="51">
+      <c r="E10" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="63">
         <v>44967</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>54</v>
+      <c r="G10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="91"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="49">
-        <v>44968</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="63">
+        <v>44967</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="97">
-        <v>44975</v>
-      </c>
-      <c r="G12" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>54</v>
-      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="97"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="92"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="100"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
       <c r="B14" s="38"/>
@@ -3158,60 +3434,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="A7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3397,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3421,60 +3697,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="A7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3487,35 +3763,35 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="55"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="53"/>
       <c r="G15" s="24"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="IW15" s="2"/>
     </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="59">
-        <v>44967</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="56"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="55">
+        <v>44991</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="54"/>
       <c r="G16" s="24"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3523,15 +3799,15 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="57">
-        <v>44968</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>72</v>
+      <c r="B17" s="51"/>
+      <c r="C17" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="55">
+        <v>44991</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3541,61 +3817,29 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="57">
-        <v>44974</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="IW18" s="2"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="34"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="57">
-        <v>44975</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="IW19" s="2"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="34"/>
+      <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="57">
-        <v>44983</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="34"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1" thickBot="1">
+      <c r="B20" s="52"/>
+      <c r="C20" s="34"/>
+      <c r="IT20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="58">
-        <v>44983</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="34"/>
-      <c r="IW21" s="2"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="34"/>
+      <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
@@ -3745,15 +3989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
@@ -3767,235 +4011,566 @@
     <col min="258" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:257">
+    <row r="2" spans="1:253">
       <c r="F2" s="2"/>
     </row>
-    <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-    </row>
-    <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-    </row>
-    <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+    <row r="5" spans="1:253">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:253">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:253" ht="30">
+      <c r="A7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="1:253" ht="30">
+      <c r="A8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-    </row>
-    <row r="11" spans="1:257" ht="15" thickTop="1"/>
-    <row r="12" spans="1:257">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="10" spans="1:253" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:253" ht="15" thickTop="1"/>
+    <row r="12" spans="1:253">
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:253">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:253" s="100" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="99"/>
+      <c r="BC14" s="99"/>
+      <c r="BD14" s="99"/>
+      <c r="BE14" s="99"/>
+      <c r="BF14" s="99"/>
+      <c r="BG14" s="99"/>
+      <c r="BH14" s="99"/>
+      <c r="BI14" s="99"/>
+      <c r="BJ14" s="99"/>
+      <c r="BK14" s="99"/>
+      <c r="BL14" s="99"/>
+      <c r="BM14" s="99"/>
+      <c r="BN14" s="99"/>
+      <c r="BO14" s="99"/>
+      <c r="BP14" s="99"/>
+      <c r="BQ14" s="99"/>
+      <c r="BR14" s="99"/>
+      <c r="BS14" s="99"/>
+      <c r="BT14" s="99"/>
+      <c r="BU14" s="99"/>
+      <c r="BV14" s="99"/>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="99"/>
+      <c r="BY14" s="99"/>
+      <c r="BZ14" s="99"/>
+      <c r="CA14" s="99"/>
+      <c r="CB14" s="99"/>
+      <c r="CC14" s="99"/>
+      <c r="CD14" s="99"/>
+      <c r="CE14" s="99"/>
+      <c r="CF14" s="99"/>
+      <c r="CG14" s="99"/>
+      <c r="CH14" s="99"/>
+      <c r="CI14" s="99"/>
+      <c r="CJ14" s="99"/>
+      <c r="CK14" s="99"/>
+      <c r="CL14" s="99"/>
+      <c r="CM14" s="99"/>
+      <c r="CN14" s="99"/>
+      <c r="CO14" s="99"/>
+      <c r="CP14" s="99"/>
+      <c r="CQ14" s="99"/>
+      <c r="CR14" s="99"/>
+      <c r="CS14" s="99"/>
+      <c r="CT14" s="99"/>
+      <c r="CU14" s="99"/>
+      <c r="CV14" s="99"/>
+      <c r="CW14" s="99"/>
+      <c r="CX14" s="99"/>
+      <c r="CY14" s="99"/>
+      <c r="CZ14" s="99"/>
+      <c r="DA14" s="99"/>
+      <c r="DB14" s="99"/>
+      <c r="DC14" s="99"/>
+      <c r="DD14" s="99"/>
+      <c r="DE14" s="99"/>
+      <c r="DF14" s="99"/>
+      <c r="DG14" s="99"/>
+      <c r="DH14" s="99"/>
+      <c r="DI14" s="99"/>
+      <c r="DJ14" s="99"/>
+      <c r="DK14" s="99"/>
+      <c r="DL14" s="99"/>
+      <c r="DM14" s="99"/>
+      <c r="DN14" s="99"/>
+      <c r="DO14" s="99"/>
+      <c r="DP14" s="99"/>
+      <c r="DQ14" s="99"/>
+      <c r="DR14" s="99"/>
+      <c r="DS14" s="99"/>
+      <c r="DT14" s="99"/>
+      <c r="DU14" s="99"/>
+      <c r="DV14" s="99"/>
+      <c r="DW14" s="99"/>
+      <c r="DX14" s="99"/>
+      <c r="DY14" s="99"/>
+      <c r="DZ14" s="99"/>
+      <c r="EA14" s="99"/>
+      <c r="EB14" s="99"/>
+      <c r="EC14" s="99"/>
+      <c r="ED14" s="99"/>
+      <c r="EE14" s="99"/>
+      <c r="EF14" s="99"/>
+      <c r="EG14" s="99"/>
+      <c r="EH14" s="99"/>
+      <c r="EI14" s="99"/>
+      <c r="EJ14" s="99"/>
+      <c r="EK14" s="99"/>
+      <c r="EL14" s="99"/>
+      <c r="EM14" s="99"/>
+      <c r="EN14" s="99"/>
+      <c r="EO14" s="99"/>
+      <c r="EP14" s="99"/>
+      <c r="EQ14" s="99"/>
+      <c r="ER14" s="99"/>
+      <c r="ES14" s="99"/>
+      <c r="ET14" s="99"/>
+      <c r="EU14" s="99"/>
+      <c r="EV14" s="99"/>
+      <c r="EW14" s="99"/>
+      <c r="EX14" s="99"/>
+      <c r="EY14" s="99"/>
+      <c r="EZ14" s="99"/>
+      <c r="FA14" s="99"/>
+      <c r="FB14" s="99"/>
+      <c r="FC14" s="99"/>
+      <c r="FD14" s="99"/>
+      <c r="FE14" s="99"/>
+      <c r="FF14" s="99"/>
+      <c r="FG14" s="99"/>
+      <c r="FH14" s="99"/>
+      <c r="FI14" s="99"/>
+      <c r="FJ14" s="99"/>
+      <c r="FK14" s="99"/>
+      <c r="FL14" s="99"/>
+      <c r="FM14" s="99"/>
+      <c r="FN14" s="99"/>
+      <c r="FO14" s="99"/>
+      <c r="FP14" s="99"/>
+      <c r="FQ14" s="99"/>
+      <c r="FR14" s="99"/>
+      <c r="FS14" s="99"/>
+      <c r="FT14" s="99"/>
+      <c r="FU14" s="99"/>
+      <c r="FV14" s="99"/>
+      <c r="FW14" s="99"/>
+      <c r="FX14" s="99"/>
+      <c r="FY14" s="99"/>
+      <c r="FZ14" s="99"/>
+      <c r="GA14" s="99"/>
+      <c r="GB14" s="99"/>
+      <c r="GC14" s="99"/>
+      <c r="GD14" s="99"/>
+      <c r="GE14" s="99"/>
+      <c r="GF14" s="99"/>
+      <c r="GG14" s="99"/>
+      <c r="GH14" s="99"/>
+      <c r="GI14" s="99"/>
+      <c r="GJ14" s="99"/>
+      <c r="GK14" s="99"/>
+      <c r="GL14" s="99"/>
+      <c r="GM14" s="99"/>
+      <c r="GN14" s="99"/>
+      <c r="GO14" s="99"/>
+      <c r="GP14" s="99"/>
+      <c r="GQ14" s="99"/>
+      <c r="GR14" s="99"/>
+      <c r="GS14" s="99"/>
+      <c r="GT14" s="99"/>
+      <c r="GU14" s="99"/>
+      <c r="GV14" s="99"/>
+      <c r="GW14" s="99"/>
+      <c r="GX14" s="99"/>
+      <c r="GY14" s="99"/>
+      <c r="GZ14" s="99"/>
+      <c r="HA14" s="99"/>
+      <c r="HB14" s="99"/>
+      <c r="HC14" s="99"/>
+      <c r="HD14" s="99"/>
+      <c r="HE14" s="99"/>
+      <c r="HF14" s="99"/>
+      <c r="HG14" s="99"/>
+      <c r="HH14" s="99"/>
+      <c r="HI14" s="99"/>
+      <c r="HJ14" s="99"/>
+      <c r="HK14" s="99"/>
+      <c r="HL14" s="99"/>
+      <c r="HM14" s="99"/>
+      <c r="HN14" s="99"/>
+      <c r="HO14" s="99"/>
+      <c r="HP14" s="99"/>
+      <c r="HQ14" s="99"/>
+      <c r="HR14" s="99"/>
+      <c r="HS14" s="99"/>
+      <c r="HT14" s="99"/>
+      <c r="HU14" s="99"/>
+      <c r="HV14" s="99"/>
+      <c r="HW14" s="99"/>
+      <c r="HX14" s="99"/>
+      <c r="HY14" s="99"/>
+      <c r="HZ14" s="99"/>
+      <c r="IA14" s="99"/>
+      <c r="IB14" s="99"/>
+      <c r="IC14" s="99"/>
+      <c r="ID14" s="99"/>
+      <c r="IE14" s="99"/>
+      <c r="IF14" s="99"/>
+      <c r="IG14" s="99"/>
+      <c r="IH14" s="99"/>
+      <c r="II14" s="99"/>
+      <c r="IJ14" s="99"/>
+      <c r="IK14" s="99"/>
+      <c r="IL14" s="99"/>
+      <c r="IM14" s="99"/>
+      <c r="IN14" s="99"/>
+      <c r="IO14" s="99"/>
+      <c r="IP14" s="99"/>
+      <c r="IQ14" s="99"/>
+      <c r="IR14" s="99"/>
+    </row>
+    <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="IW15" s="2"/>
-    </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="IS15" s="2"/>
+    </row>
+    <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="IS16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="IW17" s="2"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="IW18" s="2"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="IW19" s="2"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="IW20" s="2"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="IW21" s="2"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="IW22" s="2"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="IW23" s="2"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="IW24" s="2"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="IW25" s="2"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="IW26" s="2"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="IW27" s="2"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="IW28" s="2"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
+      <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="IW29" s="2"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112"/>
+      <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="124"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
       <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
-    <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+    <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
+      <c r="B33" s="125"/>
+      <c r="C33" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
       <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
-    <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+    <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
+      <c r="B34" s="121"/>
+      <c r="C34" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
@@ -4022,7 +4597,27 @@
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="26">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4067,60 +4662,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="A7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4338,7 +4933,7 @@
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4380,56 +4975,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="A7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4440,17 +5035,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Análisis!$A$1:$K$116</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Instrumentos!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planeación!$A$1:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$116</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>0.1</t>
-  </si>
-  <si>
-    <t>Juan Diego Rodríguez Rueda</t>
   </si>
   <si>
     <t>11/02/23</t>
@@ -462,6 +459,12 @@
       </rPr>
       <t xml:space="preserve"> ¿Qué cargo labora en su negocio?</t>
     </r>
+  </si>
+  <si>
+    <t>Elián Ibarra</t>
+  </si>
+  <si>
+    <t>AutOsiris</t>
   </si>
 </sst>
 </file>
@@ -1510,6 +1513,29 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1605,8 +1631,33 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,9 +1670,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1631,51 +1679,6 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
@@ -2360,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IV85"/>
+  <dimension ref="A2:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2388,55 +2391,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2447,56 +2450,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="C17" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="C19" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2506,25 +2509,25 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2554,10 +2557,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="81"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2569,68 +2572,68 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="50.1" customHeight="1">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="24.95" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2644,89 +2647,89 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B41" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="J41" s="1" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B40" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="41" spans="1:13" ht="25.5" customHeight="1">
+      <c r="B41" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+    </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
       <c r="B43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" ht="25.5" customHeight="1">
+      <c r="C43" s="26"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="25"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="27"/>
+      <c r="G47" s="24"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="C48" s="26"/>
       <c r="G48" s="24"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -2735,8 +2738,8 @@
     <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="G49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="G49" s="2"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -2745,25 +2748,24 @@
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
-      <c r="G50" s="2"/>
+      <c r="D50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="28"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="28"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="K52" s="13"/>
@@ -2771,83 +2773,84 @@
     </row>
     <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A53" s="29"/>
-      <c r="B53" s="31"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
+      <c r="F53" s="32"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A54" s="29"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
-      <c r="F54" s="32"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="29"/>
-      <c r="B55" s="31"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
+      <c r="F55" s="26"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A56" s="29"/>
-      <c r="B56" s="24"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
-      <c r="F56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="24"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="24"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A58" s="29"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="29"/>
       <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="29"/>
-      <c r="B59" s="33"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="29"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="26"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A60" s="29"/>
-      <c r="B60" s="24"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="26"/>
+      <c r="G60" s="24"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A61" s="29"/>
-      <c r="B61" s="33"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="G61" s="24"/>
@@ -2856,7 +2859,7 @@
     </row>
     <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="29"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="G62" s="24"/>
@@ -2865,142 +2868,132 @@
     </row>
     <row r="63" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A63" s="29"/>
-      <c r="B63" s="33"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
-      <c r="G63" s="24"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A64" s="29"/>
-      <c r="B64" s="24"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="29"/>
-      <c r="B65" s="33"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="29"/>
-      <c r="B66" s="24"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="33"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="29"/>
-      <c r="B68" s="24"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A69" s="29"/>
-      <c r="B69" s="33"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A70" s="29"/>
-      <c r="B70" s="24"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A71" s="29"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A72" s="29"/>
-      <c r="B72" s="24"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B74" s="24"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B75" s="33"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B76" s="24"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B77" s="33"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
-    </row>
-    <row r="78" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B78" s="24"/>
+      <c r="J77" s="34"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="33"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="J78" s="34"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="B79" s="33"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
-      <c r="J79" s="34"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="B80" s="24"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="33"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="24"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="33"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="26"/>
-      <c r="C84" s="24"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="24"/>
     </row>
-    <row r="85" spans="2:4">
-      <c r="C85" s="26"/>
-      <c r="D85" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -3059,56 +3052,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
+      <c r="A4" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3148,74 +3141,74 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>50</v>
-      </c>
       <c r="D10" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="63">
         <v>44967</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="89"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="63">
         <v>44967</v>
       </c>
       <c r="G11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="I11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="89"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="90"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
       <c r="B14" s="38"/>
@@ -3412,7 +3405,7 @@
   <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3434,60 +3427,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -3674,7 +3667,7 @@
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3697,60 +3690,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3765,13 +3758,13 @@
       <c r="A15" s="29"/>
       <c r="B15" s="51"/>
       <c r="C15" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="58" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>54</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="24"/>
@@ -3783,13 +3776,13 @@
       <c r="A16" s="29"/>
       <c r="B16" s="52"/>
       <c r="C16" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="55">
         <v>44991</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="24"/>
@@ -3801,13 +3794,13 @@
       <c r="A17" s="29"/>
       <c r="B17" s="51"/>
       <c r="C17" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="55">
         <v>44991</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3989,7 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -4015,60 +4008,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="10" spans="1:253" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
@@ -4078,499 +4071,499 @@
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="1:253" s="100" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="99"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="99"/>
-      <c r="BG14" s="99"/>
-      <c r="BH14" s="99"/>
-      <c r="BI14" s="99"/>
-      <c r="BJ14" s="99"/>
-      <c r="BK14" s="99"/>
-      <c r="BL14" s="99"/>
-      <c r="BM14" s="99"/>
-      <c r="BN14" s="99"/>
-      <c r="BO14" s="99"/>
-      <c r="BP14" s="99"/>
-      <c r="BQ14" s="99"/>
-      <c r="BR14" s="99"/>
-      <c r="BS14" s="99"/>
-      <c r="BT14" s="99"/>
-      <c r="BU14" s="99"/>
-      <c r="BV14" s="99"/>
-      <c r="BW14" s="99"/>
-      <c r="BX14" s="99"/>
-      <c r="BY14" s="99"/>
-      <c r="BZ14" s="99"/>
-      <c r="CA14" s="99"/>
-      <c r="CB14" s="99"/>
-      <c r="CC14" s="99"/>
-      <c r="CD14" s="99"/>
-      <c r="CE14" s="99"/>
-      <c r="CF14" s="99"/>
-      <c r="CG14" s="99"/>
-      <c r="CH14" s="99"/>
-      <c r="CI14" s="99"/>
-      <c r="CJ14" s="99"/>
-      <c r="CK14" s="99"/>
-      <c r="CL14" s="99"/>
-      <c r="CM14" s="99"/>
-      <c r="CN14" s="99"/>
-      <c r="CO14" s="99"/>
-      <c r="CP14" s="99"/>
-      <c r="CQ14" s="99"/>
-      <c r="CR14" s="99"/>
-      <c r="CS14" s="99"/>
-      <c r="CT14" s="99"/>
-      <c r="CU14" s="99"/>
-      <c r="CV14" s="99"/>
-      <c r="CW14" s="99"/>
-      <c r="CX14" s="99"/>
-      <c r="CY14" s="99"/>
-      <c r="CZ14" s="99"/>
-      <c r="DA14" s="99"/>
-      <c r="DB14" s="99"/>
-      <c r="DC14" s="99"/>
-      <c r="DD14" s="99"/>
-      <c r="DE14" s="99"/>
-      <c r="DF14" s="99"/>
-      <c r="DG14" s="99"/>
-      <c r="DH14" s="99"/>
-      <c r="DI14" s="99"/>
-      <c r="DJ14" s="99"/>
-      <c r="DK14" s="99"/>
-      <c r="DL14" s="99"/>
-      <c r="DM14" s="99"/>
-      <c r="DN14" s="99"/>
-      <c r="DO14" s="99"/>
-      <c r="DP14" s="99"/>
-      <c r="DQ14" s="99"/>
-      <c r="DR14" s="99"/>
-      <c r="DS14" s="99"/>
-      <c r="DT14" s="99"/>
-      <c r="DU14" s="99"/>
-      <c r="DV14" s="99"/>
-      <c r="DW14" s="99"/>
-      <c r="DX14" s="99"/>
-      <c r="DY14" s="99"/>
-      <c r="DZ14" s="99"/>
-      <c r="EA14" s="99"/>
-      <c r="EB14" s="99"/>
-      <c r="EC14" s="99"/>
-      <c r="ED14" s="99"/>
-      <c r="EE14" s="99"/>
-      <c r="EF14" s="99"/>
-      <c r="EG14" s="99"/>
-      <c r="EH14" s="99"/>
-      <c r="EI14" s="99"/>
-      <c r="EJ14" s="99"/>
-      <c r="EK14" s="99"/>
-      <c r="EL14" s="99"/>
-      <c r="EM14" s="99"/>
-      <c r="EN14" s="99"/>
-      <c r="EO14" s="99"/>
-      <c r="EP14" s="99"/>
-      <c r="EQ14" s="99"/>
-      <c r="ER14" s="99"/>
-      <c r="ES14" s="99"/>
-      <c r="ET14" s="99"/>
-      <c r="EU14" s="99"/>
-      <c r="EV14" s="99"/>
-      <c r="EW14" s="99"/>
-      <c r="EX14" s="99"/>
-      <c r="EY14" s="99"/>
-      <c r="EZ14" s="99"/>
-      <c r="FA14" s="99"/>
-      <c r="FB14" s="99"/>
-      <c r="FC14" s="99"/>
-      <c r="FD14" s="99"/>
-      <c r="FE14" s="99"/>
-      <c r="FF14" s="99"/>
-      <c r="FG14" s="99"/>
-      <c r="FH14" s="99"/>
-      <c r="FI14" s="99"/>
-      <c r="FJ14" s="99"/>
-      <c r="FK14" s="99"/>
-      <c r="FL14" s="99"/>
-      <c r="FM14" s="99"/>
-      <c r="FN14" s="99"/>
-      <c r="FO14" s="99"/>
-      <c r="FP14" s="99"/>
-      <c r="FQ14" s="99"/>
-      <c r="FR14" s="99"/>
-      <c r="FS14" s="99"/>
-      <c r="FT14" s="99"/>
-      <c r="FU14" s="99"/>
-      <c r="FV14" s="99"/>
-      <c r="FW14" s="99"/>
-      <c r="FX14" s="99"/>
-      <c r="FY14" s="99"/>
-      <c r="FZ14" s="99"/>
-      <c r="GA14" s="99"/>
-      <c r="GB14" s="99"/>
-      <c r="GC14" s="99"/>
-      <c r="GD14" s="99"/>
-      <c r="GE14" s="99"/>
-      <c r="GF14" s="99"/>
-      <c r="GG14" s="99"/>
-      <c r="GH14" s="99"/>
-      <c r="GI14" s="99"/>
-      <c r="GJ14" s="99"/>
-      <c r="GK14" s="99"/>
-      <c r="GL14" s="99"/>
-      <c r="GM14" s="99"/>
-      <c r="GN14" s="99"/>
-      <c r="GO14" s="99"/>
-      <c r="GP14" s="99"/>
-      <c r="GQ14" s="99"/>
-      <c r="GR14" s="99"/>
-      <c r="GS14" s="99"/>
-      <c r="GT14" s="99"/>
-      <c r="GU14" s="99"/>
-      <c r="GV14" s="99"/>
-      <c r="GW14" s="99"/>
-      <c r="GX14" s="99"/>
-      <c r="GY14" s="99"/>
-      <c r="GZ14" s="99"/>
-      <c r="HA14" s="99"/>
-      <c r="HB14" s="99"/>
-      <c r="HC14" s="99"/>
-      <c r="HD14" s="99"/>
-      <c r="HE14" s="99"/>
-      <c r="HF14" s="99"/>
-      <c r="HG14" s="99"/>
-      <c r="HH14" s="99"/>
-      <c r="HI14" s="99"/>
-      <c r="HJ14" s="99"/>
-      <c r="HK14" s="99"/>
-      <c r="HL14" s="99"/>
-      <c r="HM14" s="99"/>
-      <c r="HN14" s="99"/>
-      <c r="HO14" s="99"/>
-      <c r="HP14" s="99"/>
-      <c r="HQ14" s="99"/>
-      <c r="HR14" s="99"/>
-      <c r="HS14" s="99"/>
-      <c r="HT14" s="99"/>
-      <c r="HU14" s="99"/>
-      <c r="HV14" s="99"/>
-      <c r="HW14" s="99"/>
-      <c r="HX14" s="99"/>
-      <c r="HY14" s="99"/>
-      <c r="HZ14" s="99"/>
-      <c r="IA14" s="99"/>
-      <c r="IB14" s="99"/>
-      <c r="IC14" s="99"/>
-      <c r="ID14" s="99"/>
-      <c r="IE14" s="99"/>
-      <c r="IF14" s="99"/>
-      <c r="IG14" s="99"/>
-      <c r="IH14" s="99"/>
-      <c r="II14" s="99"/>
-      <c r="IJ14" s="99"/>
-      <c r="IK14" s="99"/>
-      <c r="IL14" s="99"/>
-      <c r="IM14" s="99"/>
-      <c r="IN14" s="99"/>
-      <c r="IO14" s="99"/>
-      <c r="IP14" s="99"/>
-      <c r="IQ14" s="99"/>
-      <c r="IR14" s="99"/>
+    <row r="14" spans="1:253" s="65" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64"/>
+      <c r="BQ14" s="64"/>
+      <c r="BR14" s="64"/>
+      <c r="BS14" s="64"/>
+      <c r="BT14" s="64"/>
+      <c r="BU14" s="64"/>
+      <c r="BV14" s="64"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="64"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="64"/>
+      <c r="CD14" s="64"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="64"/>
+      <c r="CH14" s="64"/>
+      <c r="CI14" s="64"/>
+      <c r="CJ14" s="64"/>
+      <c r="CK14" s="64"/>
+      <c r="CL14" s="64"/>
+      <c r="CM14" s="64"/>
+      <c r="CN14" s="64"/>
+      <c r="CO14" s="64"/>
+      <c r="CP14" s="64"/>
+      <c r="CQ14" s="64"/>
+      <c r="CR14" s="64"/>
+      <c r="CS14" s="64"/>
+      <c r="CT14" s="64"/>
+      <c r="CU14" s="64"/>
+      <c r="CV14" s="64"/>
+      <c r="CW14" s="64"/>
+      <c r="CX14" s="64"/>
+      <c r="CY14" s="64"/>
+      <c r="CZ14" s="64"/>
+      <c r="DA14" s="64"/>
+      <c r="DB14" s="64"/>
+      <c r="DC14" s="64"/>
+      <c r="DD14" s="64"/>
+      <c r="DE14" s="64"/>
+      <c r="DF14" s="64"/>
+      <c r="DG14" s="64"/>
+      <c r="DH14" s="64"/>
+      <c r="DI14" s="64"/>
+      <c r="DJ14" s="64"/>
+      <c r="DK14" s="64"/>
+      <c r="DL14" s="64"/>
+      <c r="DM14" s="64"/>
+      <c r="DN14" s="64"/>
+      <c r="DO14" s="64"/>
+      <c r="DP14" s="64"/>
+      <c r="DQ14" s="64"/>
+      <c r="DR14" s="64"/>
+      <c r="DS14" s="64"/>
+      <c r="DT14" s="64"/>
+      <c r="DU14" s="64"/>
+      <c r="DV14" s="64"/>
+      <c r="DW14" s="64"/>
+      <c r="DX14" s="64"/>
+      <c r="DY14" s="64"/>
+      <c r="DZ14" s="64"/>
+      <c r="EA14" s="64"/>
+      <c r="EB14" s="64"/>
+      <c r="EC14" s="64"/>
+      <c r="ED14" s="64"/>
+      <c r="EE14" s="64"/>
+      <c r="EF14" s="64"/>
+      <c r="EG14" s="64"/>
+      <c r="EH14" s="64"/>
+      <c r="EI14" s="64"/>
+      <c r="EJ14" s="64"/>
+      <c r="EK14" s="64"/>
+      <c r="EL14" s="64"/>
+      <c r="EM14" s="64"/>
+      <c r="EN14" s="64"/>
+      <c r="EO14" s="64"/>
+      <c r="EP14" s="64"/>
+      <c r="EQ14" s="64"/>
+      <c r="ER14" s="64"/>
+      <c r="ES14" s="64"/>
+      <c r="ET14" s="64"/>
+      <c r="EU14" s="64"/>
+      <c r="EV14" s="64"/>
+      <c r="EW14" s="64"/>
+      <c r="EX14" s="64"/>
+      <c r="EY14" s="64"/>
+      <c r="EZ14" s="64"/>
+      <c r="FA14" s="64"/>
+      <c r="FB14" s="64"/>
+      <c r="FC14" s="64"/>
+      <c r="FD14" s="64"/>
+      <c r="FE14" s="64"/>
+      <c r="FF14" s="64"/>
+      <c r="FG14" s="64"/>
+      <c r="FH14" s="64"/>
+      <c r="FI14" s="64"/>
+      <c r="FJ14" s="64"/>
+      <c r="FK14" s="64"/>
+      <c r="FL14" s="64"/>
+      <c r="FM14" s="64"/>
+      <c r="FN14" s="64"/>
+      <c r="FO14" s="64"/>
+      <c r="FP14" s="64"/>
+      <c r="FQ14" s="64"/>
+      <c r="FR14" s="64"/>
+      <c r="FS14" s="64"/>
+      <c r="FT14" s="64"/>
+      <c r="FU14" s="64"/>
+      <c r="FV14" s="64"/>
+      <c r="FW14" s="64"/>
+      <c r="FX14" s="64"/>
+      <c r="FY14" s="64"/>
+      <c r="FZ14" s="64"/>
+      <c r="GA14" s="64"/>
+      <c r="GB14" s="64"/>
+      <c r="GC14" s="64"/>
+      <c r="GD14" s="64"/>
+      <c r="GE14" s="64"/>
+      <c r="GF14" s="64"/>
+      <c r="GG14" s="64"/>
+      <c r="GH14" s="64"/>
+      <c r="GI14" s="64"/>
+      <c r="GJ14" s="64"/>
+      <c r="GK14" s="64"/>
+      <c r="GL14" s="64"/>
+      <c r="GM14" s="64"/>
+      <c r="GN14" s="64"/>
+      <c r="GO14" s="64"/>
+      <c r="GP14" s="64"/>
+      <c r="GQ14" s="64"/>
+      <c r="GR14" s="64"/>
+      <c r="GS14" s="64"/>
+      <c r="GT14" s="64"/>
+      <c r="GU14" s="64"/>
+      <c r="GV14" s="64"/>
+      <c r="GW14" s="64"/>
+      <c r="GX14" s="64"/>
+      <c r="GY14" s="64"/>
+      <c r="GZ14" s="64"/>
+      <c r="HA14" s="64"/>
+      <c r="HB14" s="64"/>
+      <c r="HC14" s="64"/>
+      <c r="HD14" s="64"/>
+      <c r="HE14" s="64"/>
+      <c r="HF14" s="64"/>
+      <c r="HG14" s="64"/>
+      <c r="HH14" s="64"/>
+      <c r="HI14" s="64"/>
+      <c r="HJ14" s="64"/>
+      <c r="HK14" s="64"/>
+      <c r="HL14" s="64"/>
+      <c r="HM14" s="64"/>
+      <c r="HN14" s="64"/>
+      <c r="HO14" s="64"/>
+      <c r="HP14" s="64"/>
+      <c r="HQ14" s="64"/>
+      <c r="HR14" s="64"/>
+      <c r="HS14" s="64"/>
+      <c r="HT14" s="64"/>
+      <c r="HU14" s="64"/>
+      <c r="HV14" s="64"/>
+      <c r="HW14" s="64"/>
+      <c r="HX14" s="64"/>
+      <c r="HY14" s="64"/>
+      <c r="HZ14" s="64"/>
+      <c r="IA14" s="64"/>
+      <c r="IB14" s="64"/>
+      <c r="IC14" s="64"/>
+      <c r="ID14" s="64"/>
+      <c r="IE14" s="64"/>
+      <c r="IF14" s="64"/>
+      <c r="IG14" s="64"/>
+      <c r="IH14" s="64"/>
+      <c r="II14" s="64"/>
+      <c r="IJ14" s="64"/>
+      <c r="IK14" s="64"/>
+      <c r="IL14" s="64"/>
+      <c r="IM14" s="64"/>
+      <c r="IN14" s="64"/>
+      <c r="IO14" s="64"/>
+      <c r="IP14" s="64"/>
+      <c r="IQ14" s="64"/>
+      <c r="IR14" s="64"/>
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
     </row>
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="113"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="118" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
+      <c r="IS27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="69"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+      <c r="IS28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="69"/>
+      <c r="C29" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="IS29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="74"/>
+      <c r="C31" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="IS27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117"/>
-      <c r="IS28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="114"/>
-      <c r="C29" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
-      <c r="IS29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="124"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="118" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="70"/>
+      <c r="C32" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="121"/>
-      <c r="C32" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="115"/>
       <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B33" s="125"/>
-      <c r="C33" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
       <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B34" s="121"/>
-      <c r="C34" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="125"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="125"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
@@ -4662,60 +4655,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4975,56 +4968,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -5035,17 +5028,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Instrumentos!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planeación!$A$1:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Tabulación!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$116</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Servicio Nacional de Aprendizaje (SENA)</t>
   </si>
   <si>
-    <t>Antio-Market</t>
-  </si>
-  <si>
     <t>18/02/23</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>06/03/23</t>
-  </si>
-  <si>
-    <t>IncorpOsiris</t>
   </si>
   <si>
     <t>Miscelánea Osiris</t>
@@ -466,12 +460,102 @@
   <si>
     <t>AutOsiris</t>
   </si>
+  <si>
+    <t>TÉCNICAS</t>
+  </si>
+  <si>
+    <t>Encuesta: Diseño Proyecto</t>
+  </si>
+  <si>
+    <t>Encuesta</t>
+  </si>
+  <si>
+    <t>Conocer cel punto de vista del administrador y distribuidora del diseño del S.I.</t>
+  </si>
+  <si>
+    <t>Encuesta: Punto de Vista Administrador y Distribuidora del diseño del S.I.</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Procesos a Intervenir:</t>
+  </si>
+  <si>
+    <t>Porcentajes según su importancia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventas </t>
+  </si>
+  <si>
+    <t>Porcentajes según su Stock</t>
+  </si>
+  <si>
+    <t>Tipos de Productos</t>
+  </si>
+  <si>
+    <t>Papelería</t>
+  </si>
+  <si>
+    <t>Dulces y Paquetes</t>
+  </si>
+  <si>
+    <t>Regalos</t>
+  </si>
+  <si>
+    <t>Gestión Proyecto</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Elián Ibarra y Alan Prada</t>
+  </si>
+  <si>
+    <t>11/03/23</t>
+  </si>
+  <si>
+    <t>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</t>
+  </si>
+  <si>
+    <t>Gráfico 1: Diagrama de Barras: Procesos y su importancia en el Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del Proyecto pudimos analizar los procesos a intervenir: Inventario y ventas, donde estos son un punto débil dentro de la empresa  para su correcta administración. A través de la implementación de técnicas de recolección de la información para encontrar a una solución al problema encontrado en los procesos  de la Empresa Miscelánea Osiris, puesto que esto les ha generado problemas con el Stock y la obtención de ganancias entre las dos sedes de este negocio. </t>
+  </si>
+  <si>
+    <t>Análisis General</t>
+  </si>
+  <si>
+    <t>Análisis Cualitativo</t>
+  </si>
+  <si>
+    <t>Análisis Cuantitativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfico 3: Diagrama de líneas: Número Clientes </t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Personas comunes</t>
+  </si>
+  <si>
+    <t>Porcentajes según #de clientes total</t>
+  </si>
+  <si>
+    <t>Dentro de la población cliente en esta empresa, pudimos evidenciar que los estudiantes son los que más le compran a este negocio, esto debido a un factor principal: La papelería está ubicad estratégicamente, puesto que se encuentra en frente de 2 colegios grandes donde llegan clientes antes y después de clases. Aunque todavía hay clientes que son personas comunes y normalmente pasan a comprar en horarios diferentes a los estudiantes, aunque es menor en cantidad.</t>
+  </si>
+  <si>
+    <t>Pudimos encontrar que cuentan con dos lugares: Uno es la distribuidora siendo el negocio más grande, y el otro que es donde fue hecha la entrevista, donde venden los productos. Se pudo observar que cuentan en su mayoría de papelería tales como: Cuadernos, lapices, lapiceros, carpetas. Pero también algunos dulces.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +717,39 @@
       <sz val="10"/>
       <name val="Arial1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -678,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1352,13 +1469,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1452,30 +1669,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1510,14 +1709,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1536,6 +1729,88 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,6 +1862,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,9 +1879,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,24 +1891,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1661,6 +1921,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,14 +1948,92 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,6 +2052,2881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Gráfico 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$G$16:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tipos de Productos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$F$18:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Papelería</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regalos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dulces y Paquetes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$G$18:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="420704176"/>
+        <c:axId val="420705744"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$H$16:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Porcentajes según su Stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$F$18:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Papelería</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regalos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dulces y Paquetes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$H$18:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="420704176"/>
+        <c:axId val="420705744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420704176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420705744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420705744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420704176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9782960621729046E-2"/>
+          <c:y val="0.81154829004838969"/>
+          <c:w val="0.88043407875654189"/>
+          <c:h val="0.18845170995161029"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inventario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$C$16:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Porcentajes según su importancia:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$C$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$C$16:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Porcentajes según su importancia:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$C$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="420705352"/>
+        <c:axId val="420706136"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="420705352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420706136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420706136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420705352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="9525">
+          <a:contourClr>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:area3DChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estudiantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$L$16:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Porcentajes según #de clientes total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$L$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personas comunes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$L$16:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Porcentajes según #de clientes total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$L$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420701040"/>
+        <c:axId val="420702216"/>
+        <c:axId val="0"/>
+      </c:area3DChart>
+      <c:catAx>
+        <c:axId val="420701040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420702216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420702216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420701040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2019,6 +5250,96 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2711902</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2711902</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2365,8 +5686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2391,55 +5712,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+    </row>
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2450,84 +5771,84 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="C17" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
+      <c r="C19" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -2557,83 +5878,91 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="92"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1" thickTop="1">
+    <row r="27" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="93"/>
+      <c r="D27" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="117"/>
       <c r="F27" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="50.1" customHeight="1">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24.95" customHeight="1" thickTop="1">
+      <c r="B28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="117"/>
+      <c r="F28" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="24.95" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2647,34 +5976,34 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="B40" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="B41" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
       <c r="B42" s="25"/>
@@ -3031,7 +6360,7 @@
   <dimension ref="A3:IS39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3051,57 +6380,57 @@
     <col min="254" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-    </row>
-    <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="103" t="s">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1">
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="20.25">
+      <c r="A4" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:10" s="42" customFormat="1" ht="20.25">
+      <c r="A5" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+    </row>
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3114,101 +6443,131 @@
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="1:10" s="35" customFormat="1" ht="24" customHeight="1">
+      <c r="B9" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="80" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D10" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="69">
+        <v>44991</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
+      <c r="B11" s="125"/>
+      <c r="C11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="E11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="69">
+        <v>44991</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
+      <c r="B12" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="63">
-        <v>44967</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="F12" s="69">
+        <v>44999</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="B13" s="126"/>
+      <c r="C13" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="69">
+        <v>44999</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="63">
-        <v>44967</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="46" t="s">
+      <c r="I13" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="100"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="108"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
       <c r="B14" s="38"/>
@@ -3378,20 +6737,13 @@
       <c r="IS39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="6">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -3404,8 +6756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3413,8 +6765,7 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="60.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
     <col min="7" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
@@ -3427,111 +6778,136 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="A7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1"/>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="C15" s="46"/>
+      <c r="D15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="C16" s="46"/>
+      <c r="D16" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="72">
+        <v>44991</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="C17" s="46"/>
+      <c r="D17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="72">
+        <v>44991</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="74">
+        <v>44996</v>
+      </c>
+      <c r="F18" s="34"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="76">
+        <v>44996</v>
+      </c>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
@@ -3666,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3690,60 +7066,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="A7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3756,17 +7132,17 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="24"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -3774,17 +7150,17 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="B16" s="46"/>
+      <c r="C16" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="49">
         <v>44991</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="54"/>
+      <c r="E16" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="48"/>
       <c r="G16" s="24"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3792,15 +7168,15 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="55">
+      <c r="B17" s="45"/>
+      <c r="C17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="49">
         <v>44991</v>
       </c>
-      <c r="E17" s="62" t="s">
-        <v>57</v>
+      <c r="E17" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="24"/>
@@ -3810,27 +7186,45 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="82">
+        <v>44999</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="34"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="85">
+        <v>44999</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="34"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="34"/>
       <c r="IT21" s="2"/>
     </row>
@@ -3982,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4008,60 +7402,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="A7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="10" spans="1:253" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="10" spans="1:253" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
@@ -4071,499 +7465,501 @@
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="1:253" s="65" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BU14" s="64"/>
-      <c r="BV14" s="64"/>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="64"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="64"/>
-      <c r="CD14" s="64"/>
-      <c r="CE14" s="64"/>
-      <c r="CF14" s="64"/>
-      <c r="CG14" s="64"/>
-      <c r="CH14" s="64"/>
-      <c r="CI14" s="64"/>
-      <c r="CJ14" s="64"/>
-      <c r="CK14" s="64"/>
-      <c r="CL14" s="64"/>
-      <c r="CM14" s="64"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="64"/>
-      <c r="CP14" s="64"/>
-      <c r="CQ14" s="64"/>
-      <c r="CR14" s="64"/>
-      <c r="CS14" s="64"/>
-      <c r="CT14" s="64"/>
-      <c r="CU14" s="64"/>
-      <c r="CV14" s="64"/>
-      <c r="CW14" s="64"/>
-      <c r="CX14" s="64"/>
-      <c r="CY14" s="64"/>
-      <c r="CZ14" s="64"/>
-      <c r="DA14" s="64"/>
-      <c r="DB14" s="64"/>
-      <c r="DC14" s="64"/>
-      <c r="DD14" s="64"/>
-      <c r="DE14" s="64"/>
-      <c r="DF14" s="64"/>
-      <c r="DG14" s="64"/>
-      <c r="DH14" s="64"/>
-      <c r="DI14" s="64"/>
-      <c r="DJ14" s="64"/>
-      <c r="DK14" s="64"/>
-      <c r="DL14" s="64"/>
-      <c r="DM14" s="64"/>
-      <c r="DN14" s="64"/>
-      <c r="DO14" s="64"/>
-      <c r="DP14" s="64"/>
-      <c r="DQ14" s="64"/>
-      <c r="DR14" s="64"/>
-      <c r="DS14" s="64"/>
-      <c r="DT14" s="64"/>
-      <c r="DU14" s="64"/>
-      <c r="DV14" s="64"/>
-      <c r="DW14" s="64"/>
-      <c r="DX14" s="64"/>
-      <c r="DY14" s="64"/>
-      <c r="DZ14" s="64"/>
-      <c r="EA14" s="64"/>
-      <c r="EB14" s="64"/>
-      <c r="EC14" s="64"/>
-      <c r="ED14" s="64"/>
-      <c r="EE14" s="64"/>
-      <c r="EF14" s="64"/>
-      <c r="EG14" s="64"/>
-      <c r="EH14" s="64"/>
-      <c r="EI14" s="64"/>
-      <c r="EJ14" s="64"/>
-      <c r="EK14" s="64"/>
-      <c r="EL14" s="64"/>
-      <c r="EM14" s="64"/>
-      <c r="EN14" s="64"/>
-      <c r="EO14" s="64"/>
-      <c r="EP14" s="64"/>
-      <c r="EQ14" s="64"/>
-      <c r="ER14" s="64"/>
-      <c r="ES14" s="64"/>
-      <c r="ET14" s="64"/>
-      <c r="EU14" s="64"/>
-      <c r="EV14" s="64"/>
-      <c r="EW14" s="64"/>
-      <c r="EX14" s="64"/>
-      <c r="EY14" s="64"/>
-      <c r="EZ14" s="64"/>
-      <c r="FA14" s="64"/>
-      <c r="FB14" s="64"/>
-      <c r="FC14" s="64"/>
-      <c r="FD14" s="64"/>
-      <c r="FE14" s="64"/>
-      <c r="FF14" s="64"/>
-      <c r="FG14" s="64"/>
-      <c r="FH14" s="64"/>
-      <c r="FI14" s="64"/>
-      <c r="FJ14" s="64"/>
-      <c r="FK14" s="64"/>
-      <c r="FL14" s="64"/>
-      <c r="FM14" s="64"/>
-      <c r="FN14" s="64"/>
-      <c r="FO14" s="64"/>
-      <c r="FP14" s="64"/>
-      <c r="FQ14" s="64"/>
-      <c r="FR14" s="64"/>
-      <c r="FS14" s="64"/>
-      <c r="FT14" s="64"/>
-      <c r="FU14" s="64"/>
-      <c r="FV14" s="64"/>
-      <c r="FW14" s="64"/>
-      <c r="FX14" s="64"/>
-      <c r="FY14" s="64"/>
-      <c r="FZ14" s="64"/>
-      <c r="GA14" s="64"/>
-      <c r="GB14" s="64"/>
-      <c r="GC14" s="64"/>
-      <c r="GD14" s="64"/>
-      <c r="GE14" s="64"/>
-      <c r="GF14" s="64"/>
-      <c r="GG14" s="64"/>
-      <c r="GH14" s="64"/>
-      <c r="GI14" s="64"/>
-      <c r="GJ14" s="64"/>
-      <c r="GK14" s="64"/>
-      <c r="GL14" s="64"/>
-      <c r="GM14" s="64"/>
-      <c r="GN14" s="64"/>
-      <c r="GO14" s="64"/>
-      <c r="GP14" s="64"/>
-      <c r="GQ14" s="64"/>
-      <c r="GR14" s="64"/>
-      <c r="GS14" s="64"/>
-      <c r="GT14" s="64"/>
-      <c r="GU14" s="64"/>
-      <c r="GV14" s="64"/>
-      <c r="GW14" s="64"/>
-      <c r="GX14" s="64"/>
-      <c r="GY14" s="64"/>
-      <c r="GZ14" s="64"/>
-      <c r="HA14" s="64"/>
-      <c r="HB14" s="64"/>
-      <c r="HC14" s="64"/>
-      <c r="HD14" s="64"/>
-      <c r="HE14" s="64"/>
-      <c r="HF14" s="64"/>
-      <c r="HG14" s="64"/>
-      <c r="HH14" s="64"/>
-      <c r="HI14" s="64"/>
-      <c r="HJ14" s="64"/>
-      <c r="HK14" s="64"/>
-      <c r="HL14" s="64"/>
-      <c r="HM14" s="64"/>
-      <c r="HN14" s="64"/>
-      <c r="HO14" s="64"/>
-      <c r="HP14" s="64"/>
-      <c r="HQ14" s="64"/>
-      <c r="HR14" s="64"/>
-      <c r="HS14" s="64"/>
-      <c r="HT14" s="64"/>
-      <c r="HU14" s="64"/>
-      <c r="HV14" s="64"/>
-      <c r="HW14" s="64"/>
-      <c r="HX14" s="64"/>
-      <c r="HY14" s="64"/>
-      <c r="HZ14" s="64"/>
-      <c r="IA14" s="64"/>
-      <c r="IB14" s="64"/>
-      <c r="IC14" s="64"/>
-      <c r="ID14" s="64"/>
-      <c r="IE14" s="64"/>
-      <c r="IF14" s="64"/>
-      <c r="IG14" s="64"/>
-      <c r="IH14" s="64"/>
-      <c r="II14" s="64"/>
-      <c r="IJ14" s="64"/>
-      <c r="IK14" s="64"/>
-      <c r="IL14" s="64"/>
-      <c r="IM14" s="64"/>
-      <c r="IN14" s="64"/>
-      <c r="IO14" s="64"/>
-      <c r="IP14" s="64"/>
-      <c r="IQ14" s="64"/>
-      <c r="IR14" s="64"/>
+    <row r="14" spans="1:253" s="58" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="57"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BK14" s="57"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="57"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="57"/>
+      <c r="BP14" s="57"/>
+      <c r="BQ14" s="57"/>
+      <c r="BR14" s="57"/>
+      <c r="BS14" s="57"/>
+      <c r="BT14" s="57"/>
+      <c r="BU14" s="57"/>
+      <c r="BV14" s="57"/>
+      <c r="BW14" s="57"/>
+      <c r="BX14" s="57"/>
+      <c r="BY14" s="57"/>
+      <c r="BZ14" s="57"/>
+      <c r="CA14" s="57"/>
+      <c r="CB14" s="57"/>
+      <c r="CC14" s="57"/>
+      <c r="CD14" s="57"/>
+      <c r="CE14" s="57"/>
+      <c r="CF14" s="57"/>
+      <c r="CG14" s="57"/>
+      <c r="CH14" s="57"/>
+      <c r="CI14" s="57"/>
+      <c r="CJ14" s="57"/>
+      <c r="CK14" s="57"/>
+      <c r="CL14" s="57"/>
+      <c r="CM14" s="57"/>
+      <c r="CN14" s="57"/>
+      <c r="CO14" s="57"/>
+      <c r="CP14" s="57"/>
+      <c r="CQ14" s="57"/>
+      <c r="CR14" s="57"/>
+      <c r="CS14" s="57"/>
+      <c r="CT14" s="57"/>
+      <c r="CU14" s="57"/>
+      <c r="CV14" s="57"/>
+      <c r="CW14" s="57"/>
+      <c r="CX14" s="57"/>
+      <c r="CY14" s="57"/>
+      <c r="CZ14" s="57"/>
+      <c r="DA14" s="57"/>
+      <c r="DB14" s="57"/>
+      <c r="DC14" s="57"/>
+      <c r="DD14" s="57"/>
+      <c r="DE14" s="57"/>
+      <c r="DF14" s="57"/>
+      <c r="DG14" s="57"/>
+      <c r="DH14" s="57"/>
+      <c r="DI14" s="57"/>
+      <c r="DJ14" s="57"/>
+      <c r="DK14" s="57"/>
+      <c r="DL14" s="57"/>
+      <c r="DM14" s="57"/>
+      <c r="DN14" s="57"/>
+      <c r="DO14" s="57"/>
+      <c r="DP14" s="57"/>
+      <c r="DQ14" s="57"/>
+      <c r="DR14" s="57"/>
+      <c r="DS14" s="57"/>
+      <c r="DT14" s="57"/>
+      <c r="DU14" s="57"/>
+      <c r="DV14" s="57"/>
+      <c r="DW14" s="57"/>
+      <c r="DX14" s="57"/>
+      <c r="DY14" s="57"/>
+      <c r="DZ14" s="57"/>
+      <c r="EA14" s="57"/>
+      <c r="EB14" s="57"/>
+      <c r="EC14" s="57"/>
+      <c r="ED14" s="57"/>
+      <c r="EE14" s="57"/>
+      <c r="EF14" s="57"/>
+      <c r="EG14" s="57"/>
+      <c r="EH14" s="57"/>
+      <c r="EI14" s="57"/>
+      <c r="EJ14" s="57"/>
+      <c r="EK14" s="57"/>
+      <c r="EL14" s="57"/>
+      <c r="EM14" s="57"/>
+      <c r="EN14" s="57"/>
+      <c r="EO14" s="57"/>
+      <c r="EP14" s="57"/>
+      <c r="EQ14" s="57"/>
+      <c r="ER14" s="57"/>
+      <c r="ES14" s="57"/>
+      <c r="ET14" s="57"/>
+      <c r="EU14" s="57"/>
+      <c r="EV14" s="57"/>
+      <c r="EW14" s="57"/>
+      <c r="EX14" s="57"/>
+      <c r="EY14" s="57"/>
+      <c r="EZ14" s="57"/>
+      <c r="FA14" s="57"/>
+      <c r="FB14" s="57"/>
+      <c r="FC14" s="57"/>
+      <c r="FD14" s="57"/>
+      <c r="FE14" s="57"/>
+      <c r="FF14" s="57"/>
+      <c r="FG14" s="57"/>
+      <c r="FH14" s="57"/>
+      <c r="FI14" s="57"/>
+      <c r="FJ14" s="57"/>
+      <c r="FK14" s="57"/>
+      <c r="FL14" s="57"/>
+      <c r="FM14" s="57"/>
+      <c r="FN14" s="57"/>
+      <c r="FO14" s="57"/>
+      <c r="FP14" s="57"/>
+      <c r="FQ14" s="57"/>
+      <c r="FR14" s="57"/>
+      <c r="FS14" s="57"/>
+      <c r="FT14" s="57"/>
+      <c r="FU14" s="57"/>
+      <c r="FV14" s="57"/>
+      <c r="FW14" s="57"/>
+      <c r="FX14" s="57"/>
+      <c r="FY14" s="57"/>
+      <c r="FZ14" s="57"/>
+      <c r="GA14" s="57"/>
+      <c r="GB14" s="57"/>
+      <c r="GC14" s="57"/>
+      <c r="GD14" s="57"/>
+      <c r="GE14" s="57"/>
+      <c r="GF14" s="57"/>
+      <c r="GG14" s="57"/>
+      <c r="GH14" s="57"/>
+      <c r="GI14" s="57"/>
+      <c r="GJ14" s="57"/>
+      <c r="GK14" s="57"/>
+      <c r="GL14" s="57"/>
+      <c r="GM14" s="57"/>
+      <c r="GN14" s="57"/>
+      <c r="GO14" s="57"/>
+      <c r="GP14" s="57"/>
+      <c r="GQ14" s="57"/>
+      <c r="GR14" s="57"/>
+      <c r="GS14" s="57"/>
+      <c r="GT14" s="57"/>
+      <c r="GU14" s="57"/>
+      <c r="GV14" s="57"/>
+      <c r="GW14" s="57"/>
+      <c r="GX14" s="57"/>
+      <c r="GY14" s="57"/>
+      <c r="GZ14" s="57"/>
+      <c r="HA14" s="57"/>
+      <c r="HB14" s="57"/>
+      <c r="HC14" s="57"/>
+      <c r="HD14" s="57"/>
+      <c r="HE14" s="57"/>
+      <c r="HF14" s="57"/>
+      <c r="HG14" s="57"/>
+      <c r="HH14" s="57"/>
+      <c r="HI14" s="57"/>
+      <c r="HJ14" s="57"/>
+      <c r="HK14" s="57"/>
+      <c r="HL14" s="57"/>
+      <c r="HM14" s="57"/>
+      <c r="HN14" s="57"/>
+      <c r="HO14" s="57"/>
+      <c r="HP14" s="57"/>
+      <c r="HQ14" s="57"/>
+      <c r="HR14" s="57"/>
+      <c r="HS14" s="57"/>
+      <c r="HT14" s="57"/>
+      <c r="HU14" s="57"/>
+      <c r="HV14" s="57"/>
+      <c r="HW14" s="57"/>
+      <c r="HX14" s="57"/>
+      <c r="HY14" s="57"/>
+      <c r="HZ14" s="57"/>
+      <c r="IA14" s="57"/>
+      <c r="IB14" s="57"/>
+      <c r="IC14" s="57"/>
+      <c r="ID14" s="57"/>
+      <c r="IE14" s="57"/>
+      <c r="IF14" s="57"/>
+      <c r="IG14" s="57"/>
+      <c r="IH14" s="57"/>
+      <c r="II14" s="57"/>
+      <c r="IJ14" s="57"/>
+      <c r="IK14" s="57"/>
+      <c r="IL14" s="57"/>
+      <c r="IM14" s="57"/>
+      <c r="IN14" s="57"/>
+      <c r="IO14" s="57"/>
+      <c r="IP14" s="57"/>
+      <c r="IQ14" s="57"/>
+      <c r="IR14" s="57"/>
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
+      <c r="B15" s="142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
     </row>
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="68"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="68"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
+      <c r="IS27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="61"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="IS28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="61"/>
+      <c r="C29" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="137"/>
+      <c r="IS29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="66"/>
+      <c r="C31" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="62"/>
+      <c r="C32" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="IS27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
-      <c r="IS28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="69"/>
-      <c r="C29" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
-      <c r="IS29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="74"/>
-      <c r="C31" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="70"/>
-      <c r="C32" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
       <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B33" s="74"/>
-      <c r="C33" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
       <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B34" s="70"/>
-      <c r="C34" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="74"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
@@ -4590,11 +7986,10 @@
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
@@ -4612,6 +8007,8 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
@@ -4627,26 +8024,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW41"/>
+  <dimension ref="A2:IW37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="6" max="8" width="35.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="12" style="1" customWidth="1"/>
+    <col min="11" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="14" max="256" width="12" style="1" customWidth="1"/>
     <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
     <col min="258" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -4655,120 +8049,194 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="A7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="37"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="IW15" s="2"/>
     </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="B16" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="34"/>
+      <c r="K16" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="149"/>
+      <c r="M16" s="150"/>
       <c r="IW16" s="2"/>
     </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="B17" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="151" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="152"/>
+      <c r="H17" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="K17" s="151" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="152"/>
+      <c r="M17" s="97" t="s">
+        <v>107</v>
+      </c>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="154"/>
+      <c r="H18" s="90">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="K18" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="154"/>
+      <c r="M18" s="90">
+        <v>0.85</v>
+      </c>
       <c r="IW18" s="2"/>
     </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="154"/>
+      <c r="H19" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="K19" s="153" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="154"/>
+      <c r="M19" s="90">
+        <v>0.15</v>
+      </c>
       <c r="IW19" s="2"/>
     </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="156"/>
+      <c r="H20" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="34"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -4776,6 +8244,9 @@
       <c r="B21" s="33"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -4793,28 +8264,24 @@
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
       <c r="B25" s="33"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="29"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
       <c r="B27" s="33"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4824,38 +8291,38 @@
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
+      <c r="J28" s="34"/>
       <c r="IW28" s="2"/>
     </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:257" s="1" customFormat="1">
       <c r="B29" s="33"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
+      <c r="J29" s="34"/>
       <c r="IW29" s="2"/>
     </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="1:257" s="1" customFormat="1">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="1:257" s="1" customFormat="1">
       <c r="B31" s="33"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:257" s="1" customFormat="1">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
       <c r="B33" s="33"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
@@ -4871,48 +8338,37 @@
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
-    <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="IW38" s="2"/>
-    </row>
-    <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="IW39" s="2"/>
-    </row>
-    <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="IW40" s="2"/>
-    </row>
-    <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="IW41" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="19">
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -4926,7 +8382,7 @@
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B14" sqref="B14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4968,56 +8424,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="A7" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -5027,18 +8483,18 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+    <row r="10" spans="1:256" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -5048,130 +8504,264 @@
     <row r="12" spans="1:256">
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:256" ht="15" thickBot="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:256" ht="30" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="34"/>
       <c r="IT19" s="2"/>
     </row>
-    <row r="20" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="34"/>
       <c r="IT20" s="2"/>
     </row>
-    <row r="21" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="34"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="171" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="34"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="34"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="34"/>
       <c r="IT24" s="2"/>
     </row>
-    <row r="25" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="34"/>
       <c r="IT25" s="2"/>
     </row>
-    <row r="26" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="34"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="171" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="34"/>
+      <c r="L27" s="98"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="34"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="34"/>
       <c r="IT29" s="2"/>
     </row>
-    <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+    <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="34"/>
       <c r="IT30" s="2"/>
     </row>
     <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="IT31" s="2"/>
     </row>
     <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -5236,13 +8826,19 @@
       <c r="IT41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="B27:I30"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B14:I15"/>
+    <mergeCell ref="B20:I21"/>
+    <mergeCell ref="B16:I19"/>
+    <mergeCell ref="B22:I24"/>
+    <mergeCell ref="B25:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>

--- a/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/gestion_proyecto/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -512,9 +512,6 @@
     <t>Elián Ibarra y Alan Prada</t>
   </si>
   <si>
-    <t>11/03/23</t>
-  </si>
-  <si>
     <t>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</t>
   </si>
   <si>
@@ -549,6 +546,12 @@
   </si>
   <si>
     <t>Pudimos encontrar que cuentan con dos lugares: Uno es la distribuidora siendo el negocio más grande, y el otro que es donde fue hecha la entrevista, donde venden los productos. Se pudo observar que cuentan en su mayoría de papelería tales como: Cuadernos, lapices, lapiceros, carpetas. Pero también algunos dulces.</t>
+  </si>
+  <si>
+    <t>12/03/23</t>
+  </si>
+  <si>
+    <t>Se pudo encontrar que el administrador y el diatribuidor buscan un diseño gráfico, con imágenes más que texto pero al mismo tiempo sencillo</t>
   </si>
 </sst>
 </file>
@@ -1773,9 +1776,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,34 +1811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,6 +1851,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1891,6 +1891,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1900,24 +1927,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1939,14 +1948,38 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1957,38 +1990,23 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2017,23 +2035,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2194,8 +2197,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="420704176"/>
-        <c:axId val="420705744"/>
+        <c:axId val="349297352"/>
+        <c:axId val="349298528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2276,11 +2279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420704176"/>
-        <c:axId val="420705744"/>
+        <c:axId val="349297352"/>
+        <c:axId val="349298528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420704176"/>
+        <c:axId val="349297352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2326,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420705744"/>
+        <c:crossAx val="349298528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2331,7 +2334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420705744"/>
+        <c:axId val="349298528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2385,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420704176"/>
+        <c:crossAx val="349297352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2701,12 +2704,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="420705352"/>
-        <c:axId val="420706136"/>
+        <c:axId val="349293824"/>
+        <c:axId val="349291472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="420705352"/>
+        <c:axId val="349293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2746,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420706136"/>
+        <c:crossAx val="349291472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420706136"/>
+        <c:axId val="349291472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2805,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420705352"/>
+        <c:crossAx val="349293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3090,12 +3093,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420701040"/>
-        <c:axId val="420702216"/>
+        <c:axId val="349292648"/>
+        <c:axId val="349295392"/>
         <c:axId val="0"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="420701040"/>
+        <c:axId val="349292648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3141,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420702216"/>
+        <c:crossAx val="349295392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3146,7 +3149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420702216"/>
+        <c:axId val="349295392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3200,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420701040"/>
+        <c:crossAx val="349292648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4944,7 +4947,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +5001,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,7 +5055,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5106,7 +5109,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5163,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5214,7 +5217,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5358,7 +5361,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5686,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5712,55 +5715,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -5771,56 +5774,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -5830,13 +5833,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="110"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -5846,9 +5849,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -5878,10 +5881,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -5893,10 +5896,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="117"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="19" t="s">
         <v>42</v>
       </c>
@@ -5908,61 +5911,61 @@
       <c r="C28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="117"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="24.95" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -5976,34 +5979,34 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
       <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
       <c r="B42" s="25"/>
@@ -6320,6 +6323,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
@@ -6335,18 +6350,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -6381,56 +6384,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
     </row>
     <row r="5" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -6470,7 +6473,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="124" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="67" t="s">
@@ -6496,7 +6499,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="125"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="67" t="s">
         <v>37</v>
       </c>
@@ -6520,7 +6523,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="67" t="s">
@@ -6546,7 +6549,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="126"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="68" t="s">
         <v>37</v>
       </c>
@@ -6778,60 +6781,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -7042,8 +7045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7066,60 +7069,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -7193,7 +7196,9 @@
       <c r="D18" s="82">
         <v>44999</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="176" t="s">
+        <v>110</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -7202,10 +7207,10 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="84">
         <v>44999</v>
       </c>
       <c r="E19" s="56" t="s">
@@ -7377,7 +7382,7 @@
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7402,60 +7407,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="10" spans="1:253" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
@@ -7467,26 +7472,24 @@
     </row>
     <row r="14" spans="1:253" s="58" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="57"/>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="143"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
@@ -7725,13 +7728,13 @@
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
@@ -7739,10 +7742,10 @@
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="94"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
@@ -7750,12 +7753,12 @@
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
@@ -7763,9 +7766,9 @@
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="60"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -7774,118 +7777,118 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="61"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="61"/>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B28" s="61"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="61"/>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -7898,44 +7901,44 @@
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B31" s="66"/>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="62"/>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
       <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
       <c r="B33" s="66"/>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
       <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
       <c r="B34" s="62"/>
-      <c r="C34" s="132" t="s">
+      <c r="C34" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="130"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
@@ -7987,6 +7990,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
@@ -8003,17 +8017,6 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8026,7 +8029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
@@ -8049,60 +8052,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -8110,12 +8113,12 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="37"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -8123,102 +8126,102 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="148" t="s">
+      <c r="B16" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="158" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="149"/>
-      <c r="M16" s="150"/>
+      <c r="K16" s="158" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="159"/>
+      <c r="M16" s="160"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="89" t="s">
+      <c r="C17" s="150"/>
+      <c r="D17" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="151" t="s">
+      <c r="E17" s="87"/>
+      <c r="F17" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="89" t="s">
+      <c r="G17" s="150"/>
+      <c r="H17" s="88" t="s">
         <v>89</v>
       </c>
       <c r="I17" s="34"/>
-      <c r="K17" s="151" t="s">
+      <c r="K17" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="152"/>
-      <c r="M17" s="97" t="s">
-        <v>107</v>
+      <c r="L17" s="150"/>
+      <c r="M17" s="96" t="s">
+        <v>106</v>
       </c>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="90">
+      <c r="C18" s="152"/>
+      <c r="D18" s="89">
         <v>0.75</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="153" t="s">
+      <c r="E18" s="87"/>
+      <c r="F18" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="90">
+      <c r="G18" s="152"/>
+      <c r="H18" s="89">
         <v>0.65</v>
       </c>
       <c r="I18" s="34"/>
-      <c r="K18" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="154"/>
-      <c r="M18" s="90">
+      <c r="K18" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="152"/>
+      <c r="M18" s="89">
         <v>0.85</v>
       </c>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="91">
+      <c r="C19" s="154"/>
+      <c r="D19" s="90">
         <v>0.25</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="153" t="s">
+      <c r="E19" s="87"/>
+      <c r="F19" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="90">
+      <c r="G19" s="152"/>
+      <c r="H19" s="89">
         <v>0.1</v>
       </c>
       <c r="I19" s="34"/>
-      <c r="K19" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="154"/>
-      <c r="M19" s="90">
+      <c r="K19" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="152"/>
+      <c r="M19" s="89">
         <v>0.15</v>
       </c>
       <c r="IW19" s="2"/>
@@ -8229,11 +8232,11 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="155" t="s">
+      <c r="F20" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="156"/>
-      <c r="H20" s="93">
+      <c r="G20" s="148"/>
+      <c r="H20" s="92">
         <v>0.25</v>
       </c>
       <c r="I20" s="34"/>
@@ -8350,17 +8353,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -8369,6 +8361,17 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8381,7 +8384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:I15"/>
     </sheetView>
   </sheetViews>
@@ -8424,56 +8427,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8484,17 +8487,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -8516,240 +8519,240 @@
     </row>
     <row r="14" spans="1:256" ht="30" customHeight="1">
       <c r="A14" s="29"/>
-      <c r="B14" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="164"/>
+      <c r="B14" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="169"/>
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
       <c r="J15" s="34"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="168" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
+      <c r="B16" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
       <c r="J17" s="34"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="170"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
       <c r="J18" s="34"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="170"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="J19" s="34"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="165" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="B20" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="172"/>
       <c r="J20" s="34"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
       <c r="J21" s="34"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="171" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
+      <c r="B22" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
       <c r="J22" s="34"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="34"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
       <c r="J24" s="34"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="165" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
+      <c r="B25" s="170" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
       <c r="J25" s="34"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="167"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
       <c r="J26" s="34"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="171" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
+      <c r="B27" s="161" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
       <c r="J27" s="34"/>
-      <c r="L27" s="98"/>
+      <c r="L27" s="97"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="173"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
       <c r="J28" s="34"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="29"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="173"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
       <c r="J29" s="34"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="166"/>
       <c r="J30" s="34"/>
       <c r="IT30" s="2"/>
     </row>
